--- a/fortunella/bg/Fortunella BG .xlsx
+++ b/fortunella/bg/Fortunella BG .xlsx
@@ -157,7 +157,18 @@
     <t>ПОРЪЧАЙТЕ С ОТСТЪПКА</t>
   </si>
   <si>
-    <t>Причини за закупуване на Fortunella сега</t>
+    <r>
+      <t>Причини</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve"> да купите </t>
+    </r>
+    <r>
+      <t>Fortunella сега</t>
+    </r>
   </si>
   <si>
     <t>Ще станете красиви, здрави и енергични</t>
@@ -193,7 +204,18 @@
     <t>Възстановяват</t>
   </si>
   <si>
-    <t>и ускоряват метаболитните процеси в организма (липиди, протеини, въглехидрати)</t>
+    <r>
+      <t xml:space="preserve">и ускоряват </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>процесите на обмяната</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> в организма (липиди, протеини, въглехидрати)</t>
+    </r>
   </si>
   <si>
     <t>Тонизира</t>
@@ -232,7 +254,18 @@
     <t>- капки за отслабване на растителна основа. Те са подходящи за всички, които се грижат за здравето си и искат да поддържат тялото си във форма.</t>
   </si>
   <si>
-    <t>Балансираният състав на "горелката на мазнини", витамините  и микроелементите държи  апетита под контрол - мислите по-малко за храна и по-рядко с и позволявате да хапвате нещо между закуската, обеда и вечерята. Плодовете фортунела са отговорни за разграждането на мазнините и превръщането им в енергия. А екстрактът от зелен чай предотвратява повторното им натрупване. Няма да почувствате загуба на сила по време на отслабването, ще  се зареждате с енергия  от собствените си мастни резерви.</t>
+    <r>
+      <t xml:space="preserve">Балансираният състав на "горелката на мазнини", витамините  и микроелементите държи  апетита под контрол - мислите по-малко за храна и по-рядко </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>си</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> позволявате да хапвате нещо между закуската, обеда и вечерята. Плодовете фортунела са отговорни за разграждането на мазнините и превръщането им в енергия. А екстрактът от зелен чай предотвратява повторното им натрупване. Няма да почувствате загуба на сила по време на отслабването, ще  се зареждате с енергия  от собствените си мастни резерви.</t>
+    </r>
   </si>
   <si>
     <t>Ние се гордеем</t>
@@ -265,7 +298,18 @@
     <t>За да постигнете максимални резултати, трябва стриктно</t>
   </si>
   <si>
-    <t>да се спазва инструкцията</t>
+    <r>
+      <t xml:space="preserve">да  </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>спазвате</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> инструкцията</t>
+    </r>
   </si>
   <si>
     <t>за употреба,</t>
